--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -5,33 +5,14 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="Companies" sheetId="2" r:id="rId5"/>
-    <sheet name="Fround" sheetId="3" r:id="rId6"/>
+    <sheet name="Companies" sheetId="1" r:id="rId4"/>
+    <sheet name="Fround" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="343">
-  <si>
-    <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
-  </si>
-  <si>
-    <t>Numbers Sheet Name</t>
-  </si>
-  <si>
-    <t>Numbers Table Name</t>
-  </si>
-  <si>
-    <t>Excel Worksheet Name</t>
-  </si>
-  <si>
-    <t>Companies</t>
-  </si>
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="336">
   <si>
     <t>client_id</t>
   </si>
@@ -640,9 +621,6 @@
   </si>
   <si>
     <t>https://www.globalagrimonitor.org/</t>
-  </si>
-  <si>
-    <t>Fround</t>
   </si>
   <si>
     <t>news_url</t>
@@ -1051,7 +1029,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1060,23 +1038,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color indexed="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="15"/>
@@ -1090,7 +1052,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1103,20 +1065,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1147,40 +1097,102 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,47 +1202,50 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1253,9 +1268,6 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff5e88b1"/>
-      <rgbColor rgb="ffeef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
@@ -1408,9 +1420,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1490,7 +1502,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1518,10 +1530,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1777,9 +1789,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -2067,7 +2079,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2095,10 +2107,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2349,1402 +2361,1533 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="30.5547" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" ht="0.05" customHeight="1">
-      <c r="B3" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
-        <v>209</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="5">
-        <v>209</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D10" location="'Companies'!R1C1" tooltip="" display="Companies"/>
-    <hyperlink ref="D12" location="'Fround'!R1C1" tooltip="" display="Fround"/>
-  </hyperlinks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="9.17188" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17" style="6" customWidth="1"/>
-    <col min="4" max="5" hidden="1" width="8.83333" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="6" customWidth="1"/>
+    <col min="1" max="2" width="9.17188" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="5" hidden="1" width="8.83333" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.85156" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="7">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="6">
+        <v>42322</v>
+      </c>
+      <c r="B2" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="11">
+        <v>8861</v>
+      </c>
+      <c r="B3" t="s" s="12">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="11">
+        <v>59607</v>
+      </c>
+      <c r="B4" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C4" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="9">
-        <v>42322</v>
-      </c>
-      <c r="B2" t="s" s="10">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="11">
+        <v>37252</v>
+      </c>
+      <c r="B5" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="10">
+      <c r="C5" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="12">
-        <v>8861</v>
-      </c>
-      <c r="B3" t="s" s="13">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="11">
+        <v>58593</v>
+      </c>
+      <c r="B6" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="13">
+      <c r="C6" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="12">
-        <v>59607</v>
-      </c>
-      <c r="B4" t="s" s="13">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="11">
+        <v>60949</v>
+      </c>
+      <c r="B7" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="C4" t="s" s="13">
+      <c r="C7" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="12">
-        <v>37252</v>
-      </c>
-      <c r="B5" t="s" s="13">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="11">
+        <v>18803</v>
+      </c>
+      <c r="B8" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="13">
+      <c r="C8" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="12">
-        <v>58593</v>
-      </c>
-      <c r="B6" t="s" s="13">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="11">
+        <v>38186</v>
+      </c>
+      <c r="B9" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C6" t="s" s="13">
+      <c r="C9" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="12">
-        <v>60949</v>
-      </c>
-      <c r="B7" t="s" s="13">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="11">
+        <v>56351</v>
+      </c>
+      <c r="B10" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="C7" t="s" s="13">
+      <c r="C10" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="12">
-        <v>18803</v>
-      </c>
-      <c r="B8" t="s" s="13">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" s="11">
+        <v>60601</v>
+      </c>
+      <c r="B11" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="C8" t="s" s="13">
+      <c r="C11" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="12">
-        <v>38186</v>
-      </c>
-      <c r="B9" t="s" s="13">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" s="11">
+        <v>44226</v>
+      </c>
+      <c r="B12" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="C9" t="s" s="13">
+      <c r="C12" t="s" s="12">
         <v>24</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="12">
-        <v>56351</v>
-      </c>
-      <c r="B10" t="s" s="13">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" s="11">
+        <v>41677</v>
+      </c>
+      <c r="B13" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="C10" t="s" s="13">
+      <c r="C13" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="12">
-        <v>60601</v>
-      </c>
-      <c r="B11" t="s" s="13">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" s="11">
+        <v>40384</v>
+      </c>
+      <c r="B14" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="C11" t="s" s="13">
+      <c r="C14" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="12">
-        <v>44226</v>
-      </c>
-      <c r="B12" t="s" s="13">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" s="11">
+        <v>18171</v>
+      </c>
+      <c r="B15" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="C12" t="s" s="13">
+      <c r="C15" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="12">
-        <v>41677</v>
-      </c>
-      <c r="B13" t="s" s="13">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" s="11">
+        <v>59114</v>
+      </c>
+      <c r="B16" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="C13" t="s" s="13">
+      <c r="C16" t="s" s="12">
         <v>32</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="12">
-        <v>40384</v>
-      </c>
-      <c r="B14" t="s" s="13">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" s="11">
+        <v>60079</v>
+      </c>
+      <c r="B17" t="s" s="12">
         <v>33</v>
       </c>
-      <c r="C14" t="s" s="13">
+      <c r="C17" t="s" s="12">
         <v>34</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="12">
-        <v>18171</v>
-      </c>
-      <c r="B15" t="s" s="13">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" ht="13.55" customHeight="1">
+      <c r="A18" s="11">
+        <v>60974</v>
+      </c>
+      <c r="B18" t="s" s="12">
         <v>35</v>
       </c>
-      <c r="C15" t="s" s="13">
+      <c r="C18" t="s" s="12">
         <v>36</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="12">
-        <v>59114</v>
-      </c>
-      <c r="B16" t="s" s="13">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" ht="13.55" customHeight="1">
+      <c r="A19" s="11">
+        <v>56659</v>
+      </c>
+      <c r="B19" t="s" s="12">
         <v>37</v>
       </c>
-      <c r="C16" t="s" s="13">
+      <c r="C19" t="s" s="12">
         <v>38</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="12">
-        <v>60079</v>
-      </c>
-      <c r="B17" t="s" s="13">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" ht="13.55" customHeight="1">
+      <c r="A20" s="11">
+        <v>60944</v>
+      </c>
+      <c r="B20" t="s" s="12">
         <v>39</v>
       </c>
-      <c r="C17" t="s" s="13">
+      <c r="C20" t="s" s="12">
         <v>40</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="12">
-        <v>60974</v>
-      </c>
-      <c r="B18" t="s" s="13">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" ht="13.55" customHeight="1">
+      <c r="A21" s="11">
+        <v>41392</v>
+      </c>
+      <c r="B21" t="s" s="12">
         <v>41</v>
       </c>
-      <c r="C18" t="s" s="13">
+      <c r="C21" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="12">
-        <v>56659</v>
-      </c>
-      <c r="B19" t="s" s="13">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" ht="13.55" customHeight="1">
+      <c r="A22" s="11">
+        <v>47031</v>
+      </c>
+      <c r="B22" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="C19" t="s" s="13">
+      <c r="C22" t="s" s="12">
         <v>44</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="12">
-        <v>60944</v>
-      </c>
-      <c r="B20" t="s" s="13">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" ht="13.55" customHeight="1">
+      <c r="A23" s="11">
+        <v>30573</v>
+      </c>
+      <c r="B23" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="C20" t="s" s="13">
+      <c r="C23" t="s" s="12">
         <v>46</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="12">
-        <v>41392</v>
-      </c>
-      <c r="B21" t="s" s="13">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" ht="13.55" customHeight="1">
+      <c r="A24" s="11">
+        <v>34318</v>
+      </c>
+      <c r="B24" t="s" s="12">
         <v>47</v>
       </c>
-      <c r="C21" t="s" s="13">
+      <c r="C24" t="s" s="12">
         <v>48</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="12">
-        <v>47031</v>
-      </c>
-      <c r="B22" t="s" s="13">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" ht="13.55" customHeight="1">
+      <c r="A25" s="11">
+        <v>56104</v>
+      </c>
+      <c r="B25" t="s" s="12">
         <v>49</v>
       </c>
-      <c r="C22" t="s" s="13">
+      <c r="C25" t="s" s="12">
         <v>50</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="12">
-        <v>30573</v>
-      </c>
-      <c r="B23" t="s" s="13">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" ht="13.55" customHeight="1">
+      <c r="A26" s="11">
+        <v>54739</v>
+      </c>
+      <c r="B26" t="s" s="12">
         <v>51</v>
       </c>
-      <c r="C23" t="s" s="13">
+      <c r="C26" t="s" s="12">
         <v>52</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="12">
-        <v>34318</v>
-      </c>
-      <c r="B24" t="s" s="13">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" ht="13.55" customHeight="1">
+      <c r="A27" s="11">
+        <v>39666</v>
+      </c>
+      <c r="B27" t="s" s="12">
         <v>53</v>
       </c>
-      <c r="C24" t="s" s="13">
+      <c r="C27" t="s" s="12">
         <v>54</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="12">
-        <v>56104</v>
-      </c>
-      <c r="B25" t="s" s="13">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" ht="13.55" customHeight="1">
+      <c r="A28" s="11">
+        <v>54914</v>
+      </c>
+      <c r="B28" t="s" s="12">
         <v>55</v>
       </c>
-      <c r="C25" t="s" s="13">
+      <c r="C28" t="s" s="12">
         <v>56</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="12">
-        <v>54739</v>
-      </c>
-      <c r="B26" t="s" s="13">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" ht="13.55" customHeight="1">
+      <c r="A29" s="11">
+        <v>40255</v>
+      </c>
+      <c r="B29" t="s" s="12">
         <v>57</v>
       </c>
-      <c r="C26" t="s" s="13">
+      <c r="C29" t="s" s="12">
         <v>58</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="12">
-        <v>39666</v>
-      </c>
-      <c r="B27" t="s" s="13">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" ht="13.55" customHeight="1">
+      <c r="A30" s="11">
+        <v>42650</v>
+      </c>
+      <c r="B30" t="s" s="12">
         <v>59</v>
       </c>
-      <c r="C27" t="s" s="13">
+      <c r="C30" t="s" s="12">
         <v>60</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="12">
-        <v>54914</v>
-      </c>
-      <c r="B28" t="s" s="13">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" ht="13.55" customHeight="1">
+      <c r="A31" s="11">
+        <v>39885</v>
+      </c>
+      <c r="B31" t="s" s="12">
         <v>61</v>
       </c>
-      <c r="C28" t="s" s="13">
+      <c r="C31" t="s" s="12">
         <v>62</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" s="12">
-        <v>40255</v>
-      </c>
-      <c r="B29" t="s" s="13">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" ht="13.55" customHeight="1">
+      <c r="A32" s="11">
+        <v>37245</v>
+      </c>
+      <c r="B32" t="s" s="12">
         <v>63</v>
       </c>
-      <c r="C29" t="s" s="13">
+      <c r="C32" t="s" s="12">
         <v>64</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" s="12">
-        <v>42650</v>
-      </c>
-      <c r="B30" t="s" s="13">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" ht="13.55" customHeight="1">
+      <c r="A33" s="11">
+        <v>46705</v>
+      </c>
+      <c r="B33" t="s" s="12">
         <v>65</v>
       </c>
-      <c r="C30" t="s" s="13">
+      <c r="C33" t="s" s="12">
         <v>66</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" s="12">
-        <v>39885</v>
-      </c>
-      <c r="B31" t="s" s="13">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" ht="13.55" customHeight="1">
+      <c r="A34" s="11">
+        <v>56928</v>
+      </c>
+      <c r="B34" t="s" s="12">
         <v>67</v>
       </c>
-      <c r="C31" t="s" s="13">
+      <c r="C34" t="s" s="12">
         <v>68</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" ht="13.55" customHeight="1">
-      <c r="A32" s="12">
-        <v>37245</v>
-      </c>
-      <c r="B32" t="s" s="13">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" ht="13.55" customHeight="1">
+      <c r="A35" s="11">
+        <v>54171</v>
+      </c>
+      <c r="B35" t="s" s="12">
         <v>69</v>
       </c>
-      <c r="C32" t="s" s="13">
+      <c r="C35" t="s" s="12">
         <v>70</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" ht="13.55" customHeight="1">
-      <c r="A33" s="12">
-        <v>46705</v>
-      </c>
-      <c r="B33" t="s" s="13">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" ht="13.55" customHeight="1">
+      <c r="A36" s="11">
+        <v>31634</v>
+      </c>
+      <c r="B36" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="C33" t="s" s="13">
+      <c r="C36" t="s" s="12">
         <v>72</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" ht="13.55" customHeight="1">
-      <c r="A34" s="12">
-        <v>56928</v>
-      </c>
-      <c r="B34" t="s" s="13">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" ht="13.55" customHeight="1">
+      <c r="A37" s="11">
+        <v>56156</v>
+      </c>
+      <c r="B37" t="s" s="12">
         <v>73</v>
       </c>
-      <c r="C34" t="s" s="13">
+      <c r="C37" t="s" s="12">
         <v>74</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" ht="13.55" customHeight="1">
-      <c r="A35" s="12">
-        <v>54171</v>
-      </c>
-      <c r="B35" t="s" s="13">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" ht="13.55" customHeight="1">
+      <c r="A38" s="11">
+        <v>40580</v>
+      </c>
+      <c r="B38" t="s" s="12">
         <v>75</v>
       </c>
-      <c r="C35" t="s" s="13">
+      <c r="C38" t="s" s="12">
         <v>76</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" ht="13.55" customHeight="1">
-      <c r="A36" s="12">
-        <v>31634</v>
-      </c>
-      <c r="B36" t="s" s="13">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" ht="13.55" customHeight="1">
+      <c r="A39" s="11">
+        <v>34507</v>
+      </c>
+      <c r="B39" t="s" s="12">
         <v>77</v>
       </c>
-      <c r="C36" t="s" s="13">
+      <c r="C39" t="s" s="12">
         <v>78</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" ht="13.55" customHeight="1">
-      <c r="A37" s="12">
-        <v>56156</v>
-      </c>
-      <c r="B37" t="s" s="13">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" ht="13.55" customHeight="1">
+      <c r="A40" s="11">
+        <v>35682</v>
+      </c>
+      <c r="B40" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="C37" t="s" s="13">
+      <c r="C40" t="s" s="12">
         <v>80</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" ht="13.55" customHeight="1">
-      <c r="A38" s="12">
-        <v>40580</v>
-      </c>
-      <c r="B38" t="s" s="13">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" ht="13.55" customHeight="1">
+      <c r="A41" s="11">
+        <v>35550</v>
+      </c>
+      <c r="B41" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="C38" t="s" s="13">
+      <c r="C41" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" ht="13.55" customHeight="1">
-      <c r="A39" s="12">
-        <v>34507</v>
-      </c>
-      <c r="B39" t="s" s="13">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" ht="13.55" customHeight="1">
+      <c r="A42" s="11">
+        <v>30524</v>
+      </c>
+      <c r="B42" t="s" s="12">
         <v>83</v>
       </c>
-      <c r="C39" t="s" s="13">
+      <c r="C42" t="s" s="12">
         <v>84</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" ht="13.55" customHeight="1">
-      <c r="A40" s="12">
-        <v>35682</v>
-      </c>
-      <c r="B40" t="s" s="13">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" ht="13.55" customHeight="1">
+      <c r="A43" s="11">
+        <v>43261</v>
+      </c>
+      <c r="B43" t="s" s="12">
         <v>85</v>
       </c>
-      <c r="C40" t="s" s="13">
+      <c r="C43" t="s" s="12">
         <v>86</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" ht="13.55" customHeight="1">
-      <c r="A41" s="12">
-        <v>35550</v>
-      </c>
-      <c r="B41" t="s" s="13">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" ht="13.55" customHeight="1">
+      <c r="A44" s="11">
+        <v>54799</v>
+      </c>
+      <c r="B44" t="s" s="12">
         <v>87</v>
       </c>
-      <c r="C41" t="s" s="13">
+      <c r="C44" t="s" s="12">
         <v>88</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" ht="13.55" customHeight="1">
-      <c r="A42" s="12">
-        <v>30524</v>
-      </c>
-      <c r="B42" t="s" s="13">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" ht="13.55" customHeight="1">
+      <c r="A45" s="11">
+        <v>19345</v>
+      </c>
+      <c r="B45" t="s" s="12">
         <v>89</v>
       </c>
-      <c r="C42" t="s" s="13">
+      <c r="C45" t="s" s="12">
         <v>90</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" ht="13.55" customHeight="1">
-      <c r="A43" s="12">
-        <v>43261</v>
-      </c>
-      <c r="B43" t="s" s="13">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" ht="13.55" customHeight="1">
+      <c r="A46" s="11">
+        <v>59911</v>
+      </c>
+      <c r="B46" t="s" s="12">
         <v>91</v>
       </c>
-      <c r="C43" t="s" s="13">
+      <c r="C46" t="s" s="12">
         <v>92</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" ht="13.55" customHeight="1">
-      <c r="A44" s="12">
-        <v>54799</v>
-      </c>
-      <c r="B44" t="s" s="13">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" ht="13.55" customHeight="1">
+      <c r="A47" s="11">
+        <v>46881</v>
+      </c>
+      <c r="B47" t="s" s="12">
         <v>93</v>
       </c>
-      <c r="C44" t="s" s="13">
+      <c r="C47" t="s" s="12">
         <v>94</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" ht="13.55" customHeight="1">
-      <c r="A45" s="12">
-        <v>19345</v>
-      </c>
-      <c r="B45" t="s" s="13">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" ht="13.55" customHeight="1">
+      <c r="A48" s="11">
+        <v>6864</v>
+      </c>
+      <c r="B48" t="s" s="12">
         <v>95</v>
       </c>
-      <c r="C45" t="s" s="13">
+      <c r="C48" t="s" s="12">
         <v>96</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" ht="13.55" customHeight="1">
-      <c r="A46" s="12">
-        <v>59911</v>
-      </c>
-      <c r="B46" t="s" s="13">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" ht="13.55" customHeight="1">
+      <c r="A49" s="11">
+        <v>45064</v>
+      </c>
+      <c r="B49" t="s" s="12">
         <v>97</v>
       </c>
-      <c r="C46" t="s" s="13">
+      <c r="C49" t="s" s="12">
         <v>98</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" ht="13.55" customHeight="1">
-      <c r="A47" s="12">
-        <v>46881</v>
-      </c>
-      <c r="B47" t="s" s="13">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" ht="13.55" customHeight="1">
+      <c r="A50" s="11">
+        <v>56292</v>
+      </c>
+      <c r="B50" t="s" s="12">
         <v>99</v>
       </c>
-      <c r="C47" t="s" s="13">
+      <c r="C50" t="s" s="12">
         <v>100</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" ht="13.55" customHeight="1">
-      <c r="A48" s="12">
-        <v>6864</v>
-      </c>
-      <c r="B48" t="s" s="13">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" ht="13.55" customHeight="1">
+      <c r="A51" s="11">
+        <v>17543</v>
+      </c>
+      <c r="B51" t="s" s="12">
         <v>101</v>
       </c>
-      <c r="C48" t="s" s="13">
+      <c r="C51" t="s" s="12">
         <v>102</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" ht="13.55" customHeight="1">
-      <c r="A49" s="12">
-        <v>45064</v>
-      </c>
-      <c r="B49" t="s" s="13">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" ht="13.55" customHeight="1">
+      <c r="A52" s="11">
+        <v>42356</v>
+      </c>
+      <c r="B52" t="s" s="12">
         <v>103</v>
       </c>
-      <c r="C49" t="s" s="13">
+      <c r="C52" t="s" s="12">
         <v>104</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" ht="13.55" customHeight="1">
-      <c r="A50" s="12">
-        <v>56292</v>
-      </c>
-      <c r="B50" t="s" s="13">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" ht="13.55" customHeight="1">
+      <c r="A53" s="11">
+        <v>55703</v>
+      </c>
+      <c r="B53" t="s" s="12">
         <v>105</v>
       </c>
-      <c r="C50" t="s" s="13">
+      <c r="C53" t="s" s="12">
         <v>106</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" ht="13.55" customHeight="1">
-      <c r="A51" s="12">
-        <v>17543</v>
-      </c>
-      <c r="B51" t="s" s="13">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" ht="13.55" customHeight="1">
+      <c r="A54" s="11">
+        <v>8648</v>
+      </c>
+      <c r="B54" t="s" s="12">
         <v>107</v>
       </c>
-      <c r="C51" t="s" s="13">
+      <c r="C54" t="s" s="12">
         <v>108</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="52" ht="13.55" customHeight="1">
-      <c r="A52" s="12">
-        <v>42356</v>
-      </c>
-      <c r="B52" t="s" s="13">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" ht="13.55" customHeight="1">
+      <c r="A55" s="11">
+        <v>43867</v>
+      </c>
+      <c r="B55" t="s" s="12">
         <v>109</v>
       </c>
-      <c r="C52" t="s" s="13">
+      <c r="C55" t="s" s="12">
         <v>110</v>
       </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" ht="13.55" customHeight="1">
-      <c r="A53" s="12">
-        <v>55703</v>
-      </c>
-      <c r="B53" t="s" s="13">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" ht="13.55" customHeight="1">
+      <c r="A56" s="11">
+        <v>56669</v>
+      </c>
+      <c r="B56" t="s" s="12">
         <v>111</v>
       </c>
-      <c r="C53" t="s" s="13">
+      <c r="C56" t="s" s="12">
         <v>112</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" ht="13.55" customHeight="1">
-      <c r="A54" s="12">
-        <v>8648</v>
-      </c>
-      <c r="B54" t="s" s="13">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" ht="13.55" customHeight="1">
+      <c r="A57" s="11">
+        <v>59596</v>
+      </c>
+      <c r="B57" t="s" s="12">
         <v>113</v>
       </c>
-      <c r="C54" t="s" s="13">
+      <c r="C57" t="s" s="12">
         <v>114</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-    </row>
-    <row r="55" ht="13.55" customHeight="1">
-      <c r="A55" s="12">
-        <v>43867</v>
-      </c>
-      <c r="B55" t="s" s="13">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" ht="13.55" customHeight="1">
+      <c r="A58" s="11">
+        <v>37451</v>
+      </c>
+      <c r="B58" t="s" s="12">
         <v>115</v>
       </c>
-      <c r="C55" t="s" s="13">
+      <c r="C58" t="s" s="12">
         <v>116</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-    </row>
-    <row r="56" ht="13.55" customHeight="1">
-      <c r="A56" s="12">
-        <v>56669</v>
-      </c>
-      <c r="B56" t="s" s="13">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" ht="13.55" customHeight="1">
+      <c r="A59" s="11">
+        <v>61268</v>
+      </c>
+      <c r="B59" t="s" s="12">
         <v>117</v>
       </c>
-      <c r="C56" t="s" s="13">
+      <c r="C59" t="s" s="12">
         <v>118</v>
       </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-    </row>
-    <row r="57" ht="13.55" customHeight="1">
-      <c r="A57" s="12">
-        <v>59596</v>
-      </c>
-      <c r="B57" t="s" s="13">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" ht="13.55" customHeight="1">
+      <c r="A60" s="11">
+        <v>56611</v>
+      </c>
+      <c r="B60" t="s" s="12">
         <v>119</v>
       </c>
-      <c r="C57" t="s" s="13">
+      <c r="C60" t="s" s="12">
         <v>120</v>
       </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-    </row>
-    <row r="58" ht="13.55" customHeight="1">
-      <c r="A58" s="12">
-        <v>37451</v>
-      </c>
-      <c r="B58" t="s" s="13">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" ht="13.55" customHeight="1">
+      <c r="A61" s="11">
+        <v>12870</v>
+      </c>
+      <c r="B61" t="s" s="12">
         <v>121</v>
       </c>
-      <c r="C58" t="s" s="13">
+      <c r="C61" t="s" s="12">
         <v>122</v>
       </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-    </row>
-    <row r="59" ht="13.55" customHeight="1">
-      <c r="A59" s="12">
-        <v>61268</v>
-      </c>
-      <c r="B59" t="s" s="13">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" ht="13.55" customHeight="1">
+      <c r="A62" s="11">
+        <v>57962</v>
+      </c>
+      <c r="B62" t="s" s="12">
         <v>123</v>
       </c>
-      <c r="C59" t="s" s="13">
+      <c r="C62" t="s" s="12">
         <v>124</v>
       </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" ht="13.55" customHeight="1">
-      <c r="A60" s="12">
-        <v>56611</v>
-      </c>
-      <c r="B60" t="s" s="13">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" ht="13.55" customHeight="1">
+      <c r="A63" s="11">
+        <v>21670</v>
+      </c>
+      <c r="B63" t="s" s="12">
         <v>125</v>
       </c>
-      <c r="C60" t="s" s="13">
+      <c r="C63" t="s" s="12">
         <v>126</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" ht="13.55" customHeight="1">
-      <c r="A61" s="12">
-        <v>12870</v>
-      </c>
-      <c r="B61" t="s" s="13">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" ht="13.55" customHeight="1">
+      <c r="A64" s="11">
+        <v>37364</v>
+      </c>
+      <c r="B64" t="s" s="12">
         <v>127</v>
       </c>
-      <c r="C61" t="s" s="13">
+      <c r="C64" t="s" s="12">
         <v>128</v>
       </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" ht="13.55" customHeight="1">
-      <c r="A62" s="12">
-        <v>57962</v>
-      </c>
-      <c r="B62" t="s" s="13">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" ht="13.55" customHeight="1">
+      <c r="A65" s="11">
+        <v>16382</v>
+      </c>
+      <c r="B65" t="s" s="12">
         <v>129</v>
       </c>
-      <c r="C62" t="s" s="13">
+      <c r="C65" t="s" s="12">
         <v>130</v>
       </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" ht="13.55" customHeight="1">
-      <c r="A63" s="12">
-        <v>21670</v>
-      </c>
-      <c r="B63" t="s" s="13">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" ht="13.55" customHeight="1">
+      <c r="A66" s="11">
+        <v>3350</v>
+      </c>
+      <c r="B66" t="s" s="12">
         <v>131</v>
       </c>
-      <c r="C63" t="s" s="13">
+      <c r="C66" t="s" s="12">
         <v>132</v>
       </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" ht="13.55" customHeight="1">
-      <c r="A64" s="12">
-        <v>37364</v>
-      </c>
-      <c r="B64" t="s" s="13">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" ht="13.55" customHeight="1">
+      <c r="A67" s="11">
+        <v>61095</v>
+      </c>
+      <c r="B67" t="s" s="12">
         <v>133</v>
       </c>
-      <c r="C64" t="s" s="13">
+      <c r="C67" t="s" s="12">
         <v>134</v>
       </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-    </row>
-    <row r="65" ht="13.55" customHeight="1">
-      <c r="A65" s="12">
-        <v>16382</v>
-      </c>
-      <c r="B65" t="s" s="13">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" ht="13.55" customHeight="1">
+      <c r="A68" s="11">
+        <v>424</v>
+      </c>
+      <c r="B68" t="s" s="12">
         <v>135</v>
       </c>
-      <c r="C65" t="s" s="13">
+      <c r="C68" t="s" s="12">
         <v>136</v>
       </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-    </row>
-    <row r="66" ht="13.55" customHeight="1">
-      <c r="A66" s="12">
-        <v>3350</v>
-      </c>
-      <c r="B66" t="s" s="13">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" ht="13.55" customHeight="1">
+      <c r="A69" s="11">
+        <v>4479</v>
+      </c>
+      <c r="B69" t="s" s="12">
         <v>137</v>
       </c>
-      <c r="C66" t="s" s="13">
+      <c r="C69" t="s" s="12">
         <v>138</v>
       </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-    </row>
-    <row r="67" ht="13.55" customHeight="1">
-      <c r="A67" s="12">
-        <v>61095</v>
-      </c>
-      <c r="B67" t="s" s="13">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" ht="13.55" customHeight="1">
+      <c r="A70" s="11">
+        <v>53765</v>
+      </c>
+      <c r="B70" t="s" s="12">
         <v>139</v>
       </c>
-      <c r="C67" t="s" s="13">
+      <c r="C70" t="s" s="12">
         <v>140</v>
       </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-    </row>
-    <row r="68" ht="13.55" customHeight="1">
-      <c r="A68" s="12">
-        <v>424</v>
-      </c>
-      <c r="B68" t="s" s="13">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" ht="13.55" customHeight="1">
+      <c r="A71" s="11">
+        <v>29331</v>
+      </c>
+      <c r="B71" t="s" s="12">
         <v>141</v>
       </c>
-      <c r="C68" t="s" s="13">
+      <c r="C71" t="s" s="12">
         <v>142</v>
       </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69" ht="13.55" customHeight="1">
-      <c r="A69" s="12">
-        <v>4479</v>
-      </c>
-      <c r="B69" t="s" s="13">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" ht="13.55" customHeight="1">
+      <c r="A72" s="11">
+        <v>34476</v>
+      </c>
+      <c r="B72" t="s" s="12">
         <v>143</v>
       </c>
-      <c r="C69" t="s" s="13">
+      <c r="C72" t="s" s="12">
         <v>144</v>
       </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-    </row>
-    <row r="70" ht="13.55" customHeight="1">
-      <c r="A70" s="12">
-        <v>53765</v>
-      </c>
-      <c r="B70" t="s" s="13">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" ht="13.55" customHeight="1">
+      <c r="A73" s="11">
+        <v>33251</v>
+      </c>
+      <c r="B73" t="s" s="12">
         <v>145</v>
       </c>
-      <c r="C70" t="s" s="13">
+      <c r="C73" t="s" s="12">
         <v>146</v>
       </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-    </row>
-    <row r="71" ht="13.55" customHeight="1">
-      <c r="A71" s="12">
-        <v>29331</v>
-      </c>
-      <c r="B71" t="s" s="13">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="10"/>
+    </row>
+    <row r="74" ht="13.55" customHeight="1">
+      <c r="A74" s="11">
+        <v>30540</v>
+      </c>
+      <c r="B74" t="s" s="12">
         <v>147</v>
       </c>
-      <c r="C71" t="s" s="13">
+      <c r="C74" t="s" s="12">
         <v>148</v>
       </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-    </row>
-    <row r="72" ht="13.55" customHeight="1">
-      <c r="A72" s="12">
-        <v>34476</v>
-      </c>
-      <c r="B72" t="s" s="13">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="10"/>
+    </row>
+    <row r="75" ht="13.55" customHeight="1">
+      <c r="A75" s="11">
+        <v>35305</v>
+      </c>
+      <c r="B75" t="s" s="12">
         <v>149</v>
       </c>
-      <c r="C72" t="s" s="13">
+      <c r="C75" t="s" s="12">
         <v>150</v>
       </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-    </row>
-    <row r="73" ht="13.55" customHeight="1">
-      <c r="A73" s="12">
-        <v>33251</v>
-      </c>
-      <c r="B73" t="s" s="13">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="10"/>
+    </row>
+    <row r="76" ht="13.55" customHeight="1">
+      <c r="A76" s="11">
+        <v>43507</v>
+      </c>
+      <c r="B76" t="s" s="12">
         <v>151</v>
       </c>
-      <c r="C73" t="s" s="13">
+      <c r="C76" t="s" s="12">
         <v>152</v>
       </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-    </row>
-    <row r="74" ht="13.55" customHeight="1">
-      <c r="A74" s="12">
-        <v>30540</v>
-      </c>
-      <c r="B74" t="s" s="13">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" ht="13.55" customHeight="1">
+      <c r="A77" s="11">
+        <v>37373</v>
+      </c>
+      <c r="B77" t="s" s="12">
         <v>153</v>
       </c>
-      <c r="C74" t="s" s="13">
+      <c r="C77" t="s" s="12">
         <v>154</v>
       </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-    </row>
-    <row r="75" ht="13.55" customHeight="1">
-      <c r="A75" s="12">
-        <v>35305</v>
-      </c>
-      <c r="B75" t="s" s="13">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" ht="13.55" customHeight="1">
+      <c r="A78" s="11">
+        <v>53621</v>
+      </c>
+      <c r="B78" t="s" s="12">
         <v>155</v>
       </c>
-      <c r="C75" t="s" s="13">
+      <c r="C78" t="s" s="12">
         <v>156</v>
       </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-    </row>
-    <row r="76" ht="13.55" customHeight="1">
-      <c r="A76" s="12">
-        <v>43507</v>
-      </c>
-      <c r="B76" t="s" s="13">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" ht="13.55" customHeight="1">
+      <c r="A79" s="11">
+        <v>46345</v>
+      </c>
+      <c r="B79" t="s" s="12">
         <v>157</v>
       </c>
-      <c r="C76" t="s" s="13">
+      <c r="C79" t="s" s="12">
         <v>158</v>
       </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-    </row>
-    <row r="77" ht="13.55" customHeight="1">
-      <c r="A77" s="12">
-        <v>37373</v>
-      </c>
-      <c r="B77" t="s" s="13">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" ht="13.55" customHeight="1">
+      <c r="A80" s="11">
+        <v>44942</v>
+      </c>
+      <c r="B80" t="s" s="12">
         <v>159</v>
       </c>
-      <c r="C77" t="s" s="13">
+      <c r="C80" t="s" s="12">
         <v>160</v>
       </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-    </row>
-    <row r="78" ht="13.55" customHeight="1">
-      <c r="A78" s="12">
-        <v>53621</v>
-      </c>
-      <c r="B78" t="s" s="13">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" ht="13.55" customHeight="1">
+      <c r="A81" s="11">
+        <v>16430</v>
+      </c>
+      <c r="B81" t="s" s="12">
         <v>161</v>
       </c>
-      <c r="C78" t="s" s="13">
+      <c r="C81" t="s" s="12">
         <v>162</v>
       </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-    </row>
-    <row r="79" ht="13.55" customHeight="1">
-      <c r="A79" s="12">
-        <v>46345</v>
-      </c>
-      <c r="B79" t="s" s="13">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" ht="13.55" customHeight="1">
+      <c r="A82" s="11">
+        <v>36585</v>
+      </c>
+      <c r="B82" t="s" s="12">
         <v>163</v>
       </c>
-      <c r="C79" t="s" s="13">
+      <c r="C82" t="s" s="12">
         <v>164</v>
       </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-    </row>
-    <row r="80" ht="13.55" customHeight="1">
-      <c r="A80" s="12">
-        <v>44942</v>
-      </c>
-      <c r="B80" t="s" s="13">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" ht="13.55" customHeight="1">
+      <c r="A83" s="11">
+        <v>378</v>
+      </c>
+      <c r="B83" t="s" s="12">
         <v>165</v>
       </c>
-      <c r="C80" t="s" s="13">
+      <c r="C83" t="s" s="12">
         <v>166</v>
       </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-    </row>
-    <row r="81" ht="13.55" customHeight="1">
-      <c r="A81" s="12">
-        <v>16430</v>
-      </c>
-      <c r="B81" t="s" s="13">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" ht="13.55" customHeight="1">
+      <c r="A84" s="11">
+        <v>2960</v>
+      </c>
+      <c r="B84" t="s" s="12">
         <v>167</v>
       </c>
-      <c r="C81" t="s" s="13">
+      <c r="C84" t="s" s="12">
         <v>168</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-    </row>
-    <row r="82" ht="13.55" customHeight="1">
-      <c r="A82" s="12">
-        <v>36585</v>
-      </c>
-      <c r="B82" t="s" s="13">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" ht="13.55" customHeight="1">
+      <c r="A85" s="11">
+        <v>54774</v>
+      </c>
+      <c r="B85" t="s" s="12">
         <v>169</v>
       </c>
-      <c r="C82" t="s" s="13">
+      <c r="C85" t="s" s="12">
         <v>170</v>
       </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-    </row>
-    <row r="83" ht="13.55" customHeight="1">
-      <c r="A83" s="12">
-        <v>378</v>
-      </c>
-      <c r="B83" t="s" s="13">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" ht="13.55" customHeight="1">
+      <c r="A86" s="11">
+        <v>30186</v>
+      </c>
+      <c r="B86" t="s" s="12">
         <v>171</v>
       </c>
-      <c r="C83" t="s" s="13">
+      <c r="C86" t="s" s="12">
         <v>172</v>
       </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-    </row>
-    <row r="84" ht="13.55" customHeight="1">
-      <c r="A84" s="12">
-        <v>2960</v>
-      </c>
-      <c r="B84" t="s" s="13">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" ht="13.55" customHeight="1">
+      <c r="A87" s="11">
+        <v>17621</v>
+      </c>
+      <c r="B87" t="s" s="12">
         <v>173</v>
       </c>
-      <c r="C84" t="s" s="13">
+      <c r="C87" t="s" s="12">
         <v>174</v>
       </c>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-    </row>
-    <row r="85" ht="13.55" customHeight="1">
-      <c r="A85" s="12">
-        <v>54774</v>
-      </c>
-      <c r="B85" t="s" s="13">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" ht="13.55" customHeight="1">
+      <c r="A88" s="11">
+        <v>6207</v>
+      </c>
+      <c r="B88" t="s" s="12">
         <v>175</v>
       </c>
-      <c r="C85" t="s" s="13">
+      <c r="C88" t="s" s="12">
         <v>176</v>
       </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-    </row>
-    <row r="86" ht="13.55" customHeight="1">
-      <c r="A86" s="12">
-        <v>30186</v>
-      </c>
-      <c r="B86" t="s" s="13">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" ht="13.55" customHeight="1">
+      <c r="A89" s="11">
+        <v>42547</v>
+      </c>
+      <c r="B89" t="s" s="12">
         <v>177</v>
       </c>
-      <c r="C86" t="s" s="13">
+      <c r="C89" t="s" s="12">
         <v>178</v>
       </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-    </row>
-    <row r="87" ht="13.55" customHeight="1">
-      <c r="A87" s="12">
-        <v>17621</v>
-      </c>
-      <c r="B87" t="s" s="13">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" ht="13.55" customHeight="1">
+      <c r="A90" s="11">
+        <v>40210</v>
+      </c>
+      <c r="B90" t="s" s="12">
         <v>179</v>
       </c>
-      <c r="C87" t="s" s="13">
+      <c r="C90" t="s" s="12">
         <v>180</v>
       </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-    </row>
-    <row r="88" ht="13.55" customHeight="1">
-      <c r="A88" s="12">
-        <v>6207</v>
-      </c>
-      <c r="B88" t="s" s="13">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" ht="13.55" customHeight="1">
+      <c r="A91" s="11">
+        <v>39792</v>
+      </c>
+      <c r="B91" t="s" s="12">
         <v>181</v>
       </c>
-      <c r="C88" t="s" s="13">
+      <c r="C91" t="s" s="12">
         <v>182</v>
       </c>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-    </row>
-    <row r="89" ht="13.55" customHeight="1">
-      <c r="A89" s="12">
-        <v>42547</v>
-      </c>
-      <c r="B89" t="s" s="13">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" ht="13.55" customHeight="1">
+      <c r="A92" s="11">
+        <v>37334</v>
+      </c>
+      <c r="B92" t="s" s="12">
         <v>183</v>
       </c>
-      <c r="C89" t="s" s="13">
+      <c r="C92" t="s" s="12">
         <v>184</v>
       </c>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-    </row>
-    <row r="90" ht="13.55" customHeight="1">
-      <c r="A90" s="12">
-        <v>40210</v>
-      </c>
-      <c r="B90" t="s" s="13">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" ht="13.55" customHeight="1">
+      <c r="A93" s="11">
+        <v>11077</v>
+      </c>
+      <c r="B93" t="s" s="12">
         <v>185</v>
       </c>
-      <c r="C90" t="s" s="13">
+      <c r="C93" t="s" s="12">
         <v>186</v>
       </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-    </row>
-    <row r="91" ht="13.55" customHeight="1">
-      <c r="A91" s="12">
-        <v>39792</v>
-      </c>
-      <c r="B91" t="s" s="13">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" ht="13.55" customHeight="1">
+      <c r="A94" s="11">
+        <v>56219</v>
+      </c>
+      <c r="B94" t="s" s="12">
         <v>187</v>
       </c>
-      <c r="C91" t="s" s="13">
+      <c r="C94" t="s" s="12">
         <v>188</v>
       </c>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-    </row>
-    <row r="92" ht="13.55" customHeight="1">
-      <c r="A92" s="12">
-        <v>37334</v>
-      </c>
-      <c r="B92" t="s" s="13">
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" ht="13.55" customHeight="1">
+      <c r="A95" s="11">
+        <v>42311</v>
+      </c>
+      <c r="B95" t="s" s="12">
         <v>189</v>
       </c>
-      <c r="C92" t="s" s="13">
+      <c r="C95" t="s" s="12">
         <v>190</v>
       </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-    </row>
-    <row r="93" ht="13.55" customHeight="1">
-      <c r="A93" s="12">
-        <v>11077</v>
-      </c>
-      <c r="B93" t="s" s="13">
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" ht="13.55" customHeight="1">
+      <c r="A96" s="11">
+        <v>46176</v>
+      </c>
+      <c r="B96" t="s" s="12">
         <v>191</v>
       </c>
-      <c r="C93" t="s" s="13">
+      <c r="C96" t="s" s="12">
         <v>192</v>
       </c>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-    </row>
-    <row r="94" ht="13.55" customHeight="1">
-      <c r="A94" s="12">
-        <v>56219</v>
-      </c>
-      <c r="B94" t="s" s="13">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" ht="13.55" customHeight="1">
+      <c r="A97" s="11">
+        <v>56347</v>
+      </c>
+      <c r="B97" t="s" s="12">
         <v>193</v>
       </c>
-      <c r="C94" t="s" s="13">
+      <c r="C97" t="s" s="12">
         <v>194</v>
       </c>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-    </row>
-    <row r="95" ht="13.55" customHeight="1">
-      <c r="A95" s="12">
-        <v>42311</v>
-      </c>
-      <c r="B95" t="s" s="13">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" ht="13.55" customHeight="1">
+      <c r="A98" s="11">
+        <v>41264</v>
+      </c>
+      <c r="B98" t="s" s="12">
         <v>195</v>
       </c>
-      <c r="C95" t="s" s="13">
+      <c r="C98" t="s" s="12">
         <v>196</v>
       </c>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-    </row>
-    <row r="96" ht="13.55" customHeight="1">
-      <c r="A96" s="12">
-        <v>46176</v>
-      </c>
-      <c r="B96" t="s" s="13">
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="10"/>
+    </row>
+    <row r="99" ht="13.55" customHeight="1">
+      <c r="A99" s="11">
+        <v>46329</v>
+      </c>
+      <c r="B99" t="s" s="12">
         <v>197</v>
       </c>
-      <c r="C96" t="s" s="13">
+      <c r="C99" t="s" s="12">
         <v>198</v>
       </c>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-    </row>
-    <row r="97" ht="13.55" customHeight="1">
-      <c r="A97" s="12">
-        <v>56347</v>
-      </c>
-      <c r="B97" t="s" s="13">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" ht="13.55" customHeight="1">
+      <c r="A100" s="11">
+        <v>33854</v>
+      </c>
+      <c r="B100" t="s" s="12">
         <v>199</v>
       </c>
-      <c r="C97" t="s" s="13">
+      <c r="C100" t="s" s="12">
         <v>200</v>
       </c>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-    </row>
-    <row r="98" ht="13.55" customHeight="1">
-      <c r="A98" s="12">
-        <v>41264</v>
-      </c>
-      <c r="B98" t="s" s="13">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="10"/>
+    </row>
+    <row r="101" ht="13.55" customHeight="1">
+      <c r="A101" s="11">
+        <v>56207</v>
+      </c>
+      <c r="B101" t="s" s="12">
         <v>201</v>
       </c>
-      <c r="C98" t="s" s="13">
+      <c r="C101" t="s" s="12">
         <v>202</v>
       </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-    </row>
-    <row r="99" ht="13.55" customHeight="1">
-      <c r="A99" s="12">
-        <v>46329</v>
-      </c>
-      <c r="B99" t="s" s="13">
-        <v>203</v>
-      </c>
-      <c r="C99" t="s" s="13">
-        <v>204</v>
-      </c>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-    </row>
-    <row r="100" ht="13.55" customHeight="1">
-      <c r="A100" s="12">
-        <v>33854</v>
-      </c>
-      <c r="B100" t="s" s="13">
-        <v>205</v>
-      </c>
-      <c r="C100" t="s" s="13">
-        <v>206</v>
-      </c>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-    </row>
-    <row r="101" ht="13.55" customHeight="1">
-      <c r="A101" s="12">
-        <v>56207</v>
-      </c>
-      <c r="B101" t="s" s="13">
-        <v>207</v>
-      </c>
-      <c r="C101" t="s" s="13">
-        <v>208</v>
-      </c>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3755,784 +3898,887 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="9.17188" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11.1719" style="14" customWidth="1"/>
-    <col min="5" max="5" hidden="1" width="8.83333" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="14" customWidth="1"/>
+    <col min="1" max="3" width="9.17188" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11.1719" style="15" customWidth="1"/>
+    <col min="5" max="5" hidden="1" width="8.83333" style="15" customWidth="1"/>
+    <col min="6" max="7" width="8.85156" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="8.85156" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s" s="7">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="6">
+        <v>61776</v>
+      </c>
+      <c r="B2" t="s" s="7">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s" s="7">
+        <v>205</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>206</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="11">
+        <v>391</v>
+      </c>
+      <c r="B3" t="s" s="12">
+        <v>207</v>
+      </c>
+      <c r="C3" t="s" s="12">
+        <v>208</v>
+      </c>
+      <c r="D3" t="s" s="12">
+        <v>209</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="11">
+        <v>391</v>
+      </c>
+      <c r="B4" t="s" s="12">
+        <v>207</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>208</v>
+      </c>
+      <c r="D4" t="s" s="12">
         <v>210</v>
       </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="9">
-        <v>61776</v>
-      </c>
-      <c r="B2" t="s" s="10">
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="11">
+        <v>58945</v>
+      </c>
+      <c r="B5" t="s" s="12">
         <v>211</v>
       </c>
-      <c r="C2" t="s" s="10">
+      <c r="C5" t="s" s="12">
         <v>212</v>
       </c>
-      <c r="D2" t="s" s="10">
+      <c r="D5" t="s" s="12">
         <v>213</v>
       </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="12">
-        <v>391</v>
-      </c>
-      <c r="B3" t="s" s="13">
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="11">
+        <v>58125</v>
+      </c>
+      <c r="B6" t="s" s="12">
         <v>214</v>
       </c>
-      <c r="C3" t="s" s="13">
+      <c r="C6" t="s" s="12">
         <v>215</v>
       </c>
-      <c r="D3" t="s" s="13">
+      <c r="D6" t="s" s="12">
         <v>216</v>
       </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="12">
-        <v>391</v>
-      </c>
-      <c r="B4" t="s" s="13">
-        <v>214</v>
-      </c>
-      <c r="C4" t="s" s="13">
-        <v>215</v>
-      </c>
-      <c r="D4" t="s" s="13">
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="11">
+        <v>4016</v>
+      </c>
+      <c r="B7" t="s" s="12">
         <v>217</v>
       </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="12">
-        <v>58945</v>
-      </c>
-      <c r="B5" t="s" s="13">
+      <c r="C7" t="s" s="12">
         <v>218</v>
       </c>
-      <c r="C5" t="s" s="13">
+      <c r="D7" t="s" s="12">
         <v>219</v>
       </c>
-      <c r="D5" t="s" s="13">
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="11">
+        <v>4189</v>
+      </c>
+      <c r="B8" t="s" s="12">
         <v>220</v>
       </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="12">
-        <v>58125</v>
-      </c>
-      <c r="B6" t="s" s="13">
+      <c r="C8" t="s" s="12">
         <v>221</v>
       </c>
-      <c r="C6" t="s" s="13">
+      <c r="D8" t="s" s="12">
         <v>222</v>
       </c>
-      <c r="D6" t="s" s="13">
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="11">
+        <v>57375</v>
+      </c>
+      <c r="B9" t="s" s="12">
         <v>223</v>
       </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="12">
-        <v>4016</v>
-      </c>
-      <c r="B7" t="s" s="13">
+      <c r="C9" t="s" s="12">
         <v>224</v>
       </c>
-      <c r="C7" t="s" s="13">
+      <c r="D9" t="s" s="12">
         <v>225</v>
       </c>
-      <c r="D7" t="s" s="13">
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="11">
+        <v>60370</v>
+      </c>
+      <c r="B10" t="s" s="12">
         <v>226</v>
       </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="12">
-        <v>4189</v>
-      </c>
-      <c r="B8" t="s" s="13">
+      <c r="C10" t="s" s="12">
         <v>227</v>
       </c>
-      <c r="C8" t="s" s="13">
+      <c r="D10" t="s" s="12">
         <v>228</v>
       </c>
-      <c r="D8" t="s" s="13">
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" s="11">
+        <v>395</v>
+      </c>
+      <c r="B11" t="s" s="12">
         <v>229</v>
       </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="12">
-        <v>57375</v>
-      </c>
-      <c r="B9" t="s" s="13">
+      <c r="C11" t="s" s="12">
         <v>230</v>
       </c>
-      <c r="C9" t="s" s="13">
+      <c r="D11" t="s" s="12">
         <v>231</v>
       </c>
-      <c r="D9" t="s" s="13">
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" s="11">
+        <v>31870</v>
+      </c>
+      <c r="B12" t="s" s="12">
         <v>232</v>
       </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="12">
+      <c r="C12" t="s" s="12">
+        <v>233</v>
+      </c>
+      <c r="D12" t="s" s="12">
+        <v>234</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" s="11">
+        <v>476</v>
+      </c>
+      <c r="B13" t="s" s="12">
+        <v>235</v>
+      </c>
+      <c r="C13" t="s" s="12">
+        <v>236</v>
+      </c>
+      <c r="D13" t="s" s="12">
+        <v>237</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" s="11">
+        <v>4009</v>
+      </c>
+      <c r="B14" t="s" s="12">
+        <v>238</v>
+      </c>
+      <c r="C14" t="s" s="12">
+        <v>239</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>240</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" s="11">
+        <v>33795</v>
+      </c>
+      <c r="B15" t="s" s="12">
+        <v>241</v>
+      </c>
+      <c r="C15" t="s" s="12">
+        <v>242</v>
+      </c>
+      <c r="D15" t="s" s="12">
+        <v>243</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" s="11">
+        <v>989</v>
+      </c>
+      <c r="B16" t="s" s="12">
+        <v>244</v>
+      </c>
+      <c r="C16" t="s" s="12">
+        <v>245</v>
+      </c>
+      <c r="D16" t="s" s="12">
+        <v>246</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" s="11">
+        <v>13052</v>
+      </c>
+      <c r="B17" t="s" s="12">
+        <v>247</v>
+      </c>
+      <c r="C17" t="s" s="12">
+        <v>248</v>
+      </c>
+      <c r="D17" t="s" s="12">
+        <v>249</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" ht="13.55" customHeight="1">
+      <c r="A18" s="11">
+        <v>17960</v>
+      </c>
+      <c r="B18" t="s" s="12">
+        <v>250</v>
+      </c>
+      <c r="C18" t="s" s="12">
+        <v>251</v>
+      </c>
+      <c r="D18" t="s" s="12">
+        <v>252</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" ht="13.55" customHeight="1">
+      <c r="A19" s="11">
+        <v>11868</v>
+      </c>
+      <c r="B19" t="s" s="12">
+        <v>253</v>
+      </c>
+      <c r="C19" t="s" s="12">
+        <v>254</v>
+      </c>
+      <c r="D19" t="s" s="12">
+        <v>255</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" ht="13.55" customHeight="1">
+      <c r="A20" s="11">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s" s="12">
+        <v>256</v>
+      </c>
+      <c r="C20" t="s" s="12">
+        <v>257</v>
+      </c>
+      <c r="D20" t="s" s="12">
+        <v>258</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" ht="13.55" customHeight="1">
+      <c r="A21" s="11">
+        <v>17960</v>
+      </c>
+      <c r="B21" t="s" s="12">
+        <v>250</v>
+      </c>
+      <c r="C21" t="s" s="12">
+        <v>251</v>
+      </c>
+      <c r="D21" t="s" s="12">
+        <v>259</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" ht="13.55" customHeight="1">
+      <c r="A22" s="11">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s" s="12">
+        <v>260</v>
+      </c>
+      <c r="C22" t="s" s="12">
+        <v>261</v>
+      </c>
+      <c r="D22" t="s" s="12">
+        <v>262</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" ht="13.55" customHeight="1">
+      <c r="A23" s="11">
+        <v>17507</v>
+      </c>
+      <c r="B23" t="s" s="12">
+        <v>263</v>
+      </c>
+      <c r="C23" t="s" s="12">
+        <v>264</v>
+      </c>
+      <c r="D23" t="s" s="12">
+        <v>265</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" ht="13.55" customHeight="1">
+      <c r="A24" s="11">
+        <v>3696</v>
+      </c>
+      <c r="B24" t="s" s="12">
+        <v>266</v>
+      </c>
+      <c r="C24" t="s" s="12">
+        <v>267</v>
+      </c>
+      <c r="D24" t="s" s="12">
+        <v>268</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" ht="13.55" customHeight="1">
+      <c r="A25" s="11">
+        <v>31362</v>
+      </c>
+      <c r="B25" t="s" s="12">
+        <v>269</v>
+      </c>
+      <c r="C25" t="s" s="12">
+        <v>270</v>
+      </c>
+      <c r="D25" t="s" s="12">
+        <v>271</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" ht="13.55" customHeight="1">
+      <c r="A26" s="11">
+        <v>58290</v>
+      </c>
+      <c r="B26" t="s" s="12">
+        <v>272</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>273</v>
+      </c>
+      <c r="D26" t="s" s="12">
+        <v>274</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" ht="13.55" customHeight="1">
+      <c r="A27" s="11">
+        <v>33795</v>
+      </c>
+      <c r="B27" t="s" s="12">
+        <v>241</v>
+      </c>
+      <c r="C27" t="s" s="12">
+        <v>242</v>
+      </c>
+      <c r="D27" t="s" s="12">
+        <v>275</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" ht="13.55" customHeight="1">
+      <c r="A28" s="11">
+        <v>60856</v>
+      </c>
+      <c r="B28" t="s" s="12">
+        <v>276</v>
+      </c>
+      <c r="C28" t="s" s="12">
+        <v>277</v>
+      </c>
+      <c r="D28" t="s" s="12">
+        <v>278</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" ht="13.55" customHeight="1">
+      <c r="A29" s="11">
+        <v>61605</v>
+      </c>
+      <c r="B29" t="s" s="12">
+        <v>279</v>
+      </c>
+      <c r="C29" t="s" s="12">
+        <v>280</v>
+      </c>
+      <c r="D29" t="s" s="12">
+        <v>281</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" ht="13.55" customHeight="1">
+      <c r="A30" s="11">
+        <v>11868</v>
+      </c>
+      <c r="B30" t="s" s="12">
+        <v>253</v>
+      </c>
+      <c r="C30" t="s" s="12">
+        <v>254</v>
+      </c>
+      <c r="D30" t="s" s="12">
+        <v>282</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" ht="13.55" customHeight="1">
+      <c r="A31" s="11">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s" s="12">
+        <v>283</v>
+      </c>
+      <c r="C31" t="s" s="12">
+        <v>284</v>
+      </c>
+      <c r="D31" t="s" s="12">
+        <v>285</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" ht="13.55" customHeight="1">
+      <c r="A32" s="11">
+        <v>58108</v>
+      </c>
+      <c r="B32" t="s" s="12">
+        <v>286</v>
+      </c>
+      <c r="C32" t="s" s="12">
+        <v>287</v>
+      </c>
+      <c r="D32" t="s" s="12">
+        <v>288</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" ht="13.55" customHeight="1">
+      <c r="A33" s="11">
+        <v>13052</v>
+      </c>
+      <c r="B33" t="s" s="12">
+        <v>247</v>
+      </c>
+      <c r="C33" t="s" s="12">
+        <v>248</v>
+      </c>
+      <c r="D33" t="s" s="12">
+        <v>289</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" ht="13.55" customHeight="1">
+      <c r="A34" s="11">
+        <v>61001</v>
+      </c>
+      <c r="B34" t="s" s="12">
+        <v>290</v>
+      </c>
+      <c r="C34" t="s" s="12">
+        <v>291</v>
+      </c>
+      <c r="D34" t="s" s="12">
+        <v>292</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" ht="13.55" customHeight="1">
+      <c r="A35" s="11">
         <v>60370</v>
       </c>
-      <c r="B10" t="s" s="13">
-        <v>233</v>
-      </c>
-      <c r="C10" t="s" s="13">
-        <v>234</v>
-      </c>
-      <c r="D10" t="s" s="13">
-        <v>235</v>
-      </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="12">
-        <v>395</v>
-      </c>
-      <c r="B11" t="s" s="13">
-        <v>236</v>
-      </c>
-      <c r="C11" t="s" s="13">
-        <v>237</v>
-      </c>
-      <c r="D11" t="s" s="13">
-        <v>238</v>
-      </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="12">
-        <v>31870</v>
-      </c>
-      <c r="B12" t="s" s="13">
-        <v>239</v>
-      </c>
-      <c r="C12" t="s" s="13">
-        <v>240</v>
-      </c>
-      <c r="D12" t="s" s="13">
-        <v>241</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="12">
-        <v>476</v>
-      </c>
-      <c r="B13" t="s" s="13">
-        <v>242</v>
-      </c>
-      <c r="C13" t="s" s="13">
-        <v>243</v>
-      </c>
-      <c r="D13" t="s" s="13">
-        <v>244</v>
-      </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="12">
-        <v>4009</v>
-      </c>
-      <c r="B14" t="s" s="13">
-        <v>245</v>
-      </c>
-      <c r="C14" t="s" s="13">
-        <v>246</v>
-      </c>
-      <c r="D14" t="s" s="13">
-        <v>247</v>
-      </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="12">
-        <v>33795</v>
-      </c>
-      <c r="B15" t="s" s="13">
-        <v>248</v>
-      </c>
-      <c r="C15" t="s" s="13">
-        <v>249</v>
-      </c>
-      <c r="D15" t="s" s="13">
-        <v>250</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="12">
-        <v>989</v>
-      </c>
-      <c r="B16" t="s" s="13">
-        <v>251</v>
-      </c>
-      <c r="C16" t="s" s="13">
-        <v>252</v>
-      </c>
-      <c r="D16" t="s" s="13">
-        <v>253</v>
-      </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="12">
-        <v>13052</v>
-      </c>
-      <c r="B17" t="s" s="13">
-        <v>254</v>
-      </c>
-      <c r="C17" t="s" s="13">
-        <v>255</v>
-      </c>
-      <c r="D17" t="s" s="13">
-        <v>256</v>
-      </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="12">
-        <v>17960</v>
-      </c>
-      <c r="B18" t="s" s="13">
-        <v>257</v>
-      </c>
-      <c r="C18" t="s" s="13">
-        <v>258</v>
-      </c>
-      <c r="D18" t="s" s="13">
-        <v>259</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="12">
-        <v>11868</v>
-      </c>
-      <c r="B19" t="s" s="13">
-        <v>260</v>
-      </c>
-      <c r="C19" t="s" s="13">
-        <v>261</v>
-      </c>
-      <c r="D19" t="s" s="13">
-        <v>262</v>
-      </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="12">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s" s="13">
+      <c r="B35" t="s" s="12">
+        <v>226</v>
+      </c>
+      <c r="C35" t="s" s="12">
+        <v>227</v>
+      </c>
+      <c r="D35" t="s" s="12">
+        <v>293</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" ht="13.55" customHeight="1">
+      <c r="A36" s="11">
+        <v>4150</v>
+      </c>
+      <c r="B36" t="s" s="12">
+        <v>294</v>
+      </c>
+      <c r="C36" t="s" s="12">
+        <v>295</v>
+      </c>
+      <c r="D36" t="s" s="12">
+        <v>296</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" ht="13.55" customHeight="1">
+      <c r="A37" s="11">
+        <v>58329</v>
+      </c>
+      <c r="B37" t="s" s="12">
+        <v>297</v>
+      </c>
+      <c r="C37" t="s" s="12">
+        <v>298</v>
+      </c>
+      <c r="D37" t="s" s="12">
+        <v>299</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" ht="13.55" customHeight="1">
+      <c r="A38" s="11">
+        <v>61002</v>
+      </c>
+      <c r="B38" t="s" s="12">
+        <v>300</v>
+      </c>
+      <c r="C38" t="s" s="12">
+        <v>301</v>
+      </c>
+      <c r="D38" t="s" s="12">
+        <v>302</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" ht="13.55" customHeight="1">
+      <c r="A39" s="11">
+        <v>58697</v>
+      </c>
+      <c r="B39" t="s" s="12">
+        <v>303</v>
+      </c>
+      <c r="C39" t="s" s="12">
+        <v>304</v>
+      </c>
+      <c r="D39" t="s" s="12">
+        <v>305</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" ht="13.55" customHeight="1">
+      <c r="A40" s="11">
+        <v>3982</v>
+      </c>
+      <c r="B40" t="s" s="12">
+        <v>306</v>
+      </c>
+      <c r="C40" t="s" s="12">
+        <v>307</v>
+      </c>
+      <c r="D40" t="s" s="12">
+        <v>308</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" ht="13.55" customHeight="1">
+      <c r="A41" s="11">
+        <v>17507</v>
+      </c>
+      <c r="B41" t="s" s="12">
         <v>263</v>
       </c>
-      <c r="C20" t="s" s="13">
+      <c r="C41" t="s" s="12">
         <v>264</v>
       </c>
-      <c r="D20" t="s" s="13">
-        <v>265</v>
-      </c>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="12">
-        <v>17960</v>
-      </c>
-      <c r="B21" t="s" s="13">
-        <v>257</v>
-      </c>
-      <c r="C21" t="s" s="13">
-        <v>258</v>
-      </c>
-      <c r="D21" t="s" s="13">
-        <v>266</v>
-      </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="12">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s" s="13">
-        <v>267</v>
-      </c>
-      <c r="C22" t="s" s="13">
-        <v>268</v>
-      </c>
-      <c r="D22" t="s" s="13">
-        <v>269</v>
-      </c>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="12">
+      <c r="D41" t="s" s="12">
+        <v>309</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" ht="13.55" customHeight="1">
+      <c r="A42" s="11">
+        <v>4058</v>
+      </c>
+      <c r="B42" t="s" s="12">
+        <v>310</v>
+      </c>
+      <c r="C42" t="s" s="12">
+        <v>311</v>
+      </c>
+      <c r="D42" t="s" s="12">
+        <v>312</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" ht="13.55" customHeight="1">
+      <c r="A43" s="11">
+        <v>61997</v>
+      </c>
+      <c r="B43" t="s" s="12">
+        <v>313</v>
+      </c>
+      <c r="C43" t="s" s="12">
+        <v>314</v>
+      </c>
+      <c r="D43" t="s" s="12">
+        <v>315</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" ht="13.55" customHeight="1">
+      <c r="A44" s="11">
+        <v>57916</v>
+      </c>
+      <c r="B44" t="s" s="12">
+        <v>316</v>
+      </c>
+      <c r="C44" t="s" s="12">
+        <v>317</v>
+      </c>
+      <c r="D44" t="s" s="12">
+        <v>318</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" ht="13.55" customHeight="1">
+      <c r="A45" s="11">
+        <v>5335</v>
+      </c>
+      <c r="B45" t="s" s="12">
+        <v>319</v>
+      </c>
+      <c r="C45" t="s" s="12">
+        <v>320</v>
+      </c>
+      <c r="D45" t="s" s="12">
+        <v>321</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" ht="13.55" customHeight="1">
+      <c r="A46" s="11">
+        <v>60759</v>
+      </c>
+      <c r="B46" t="s" s="12">
+        <v>322</v>
+      </c>
+      <c r="C46" t="s" s="12">
+        <v>323</v>
+      </c>
+      <c r="D46" t="s" s="12">
+        <v>324</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" ht="13.55" customHeight="1">
+      <c r="A47" s="11">
+        <v>59114</v>
+      </c>
+      <c r="B47" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="D47" t="s" s="12">
+        <v>325</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" ht="13.55" customHeight="1">
+      <c r="A48" s="11">
         <v>17507</v>
       </c>
-      <c r="B23" t="s" s="13">
-        <v>270</v>
-      </c>
-      <c r="C23" t="s" s="13">
-        <v>271</v>
-      </c>
-      <c r="D23" t="s" s="13">
-        <v>272</v>
-      </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="12">
-        <v>3696</v>
-      </c>
-      <c r="B24" t="s" s="13">
-        <v>273</v>
-      </c>
-      <c r="C24" t="s" s="13">
-        <v>274</v>
-      </c>
-      <c r="D24" t="s" s="13">
-        <v>275</v>
-      </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="12">
-        <v>31362</v>
-      </c>
-      <c r="B25" t="s" s="13">
-        <v>276</v>
-      </c>
-      <c r="C25" t="s" s="13">
-        <v>277</v>
-      </c>
-      <c r="D25" t="s" s="13">
-        <v>278</v>
-      </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="12">
-        <v>58290</v>
-      </c>
-      <c r="B26" t="s" s="13">
-        <v>279</v>
-      </c>
-      <c r="C26" t="s" s="13">
-        <v>280</v>
-      </c>
-      <c r="D26" t="s" s="13">
-        <v>281</v>
-      </c>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="12">
-        <v>33795</v>
-      </c>
-      <c r="B27" t="s" s="13">
-        <v>248</v>
-      </c>
-      <c r="C27" t="s" s="13">
-        <v>249</v>
-      </c>
-      <c r="D27" t="s" s="13">
-        <v>282</v>
-      </c>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="12">
-        <v>60856</v>
-      </c>
-      <c r="B28" t="s" s="13">
-        <v>283</v>
-      </c>
-      <c r="C28" t="s" s="13">
-        <v>284</v>
-      </c>
-      <c r="D28" t="s" s="13">
-        <v>285</v>
-      </c>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" s="12">
-        <v>61605</v>
-      </c>
-      <c r="B29" t="s" s="13">
-        <v>286</v>
-      </c>
-      <c r="C29" t="s" s="13">
-        <v>287</v>
-      </c>
-      <c r="D29" t="s" s="13">
-        <v>288</v>
-      </c>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" s="12">
-        <v>11868</v>
-      </c>
-      <c r="B30" t="s" s="13">
-        <v>260</v>
-      </c>
-      <c r="C30" t="s" s="13">
-        <v>261</v>
-      </c>
-      <c r="D30" t="s" s="13">
-        <v>289</v>
-      </c>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" s="12">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s" s="13">
-        <v>290</v>
-      </c>
-      <c r="C31" t="s" s="13">
-        <v>291</v>
-      </c>
-      <c r="D31" t="s" s="13">
-        <v>292</v>
-      </c>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" ht="13.55" customHeight="1">
-      <c r="A32" s="12">
-        <v>58108</v>
-      </c>
-      <c r="B32" t="s" s="13">
-        <v>293</v>
-      </c>
-      <c r="C32" t="s" s="13">
-        <v>294</v>
-      </c>
-      <c r="D32" t="s" s="13">
-        <v>295</v>
-      </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" ht="13.55" customHeight="1">
-      <c r="A33" s="12">
-        <v>13052</v>
-      </c>
-      <c r="B33" t="s" s="13">
-        <v>254</v>
-      </c>
-      <c r="C33" t="s" s="13">
-        <v>255</v>
-      </c>
-      <c r="D33" t="s" s="13">
-        <v>296</v>
-      </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" ht="13.55" customHeight="1">
-      <c r="A34" s="12">
-        <v>61001</v>
-      </c>
-      <c r="B34" t="s" s="13">
-        <v>297</v>
-      </c>
-      <c r="C34" t="s" s="13">
-        <v>298</v>
-      </c>
-      <c r="D34" t="s" s="13">
-        <v>299</v>
-      </c>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" ht="13.55" customHeight="1">
-      <c r="A35" s="12">
-        <v>60370</v>
-      </c>
-      <c r="B35" t="s" s="13">
-        <v>233</v>
-      </c>
-      <c r="C35" t="s" s="13">
-        <v>234</v>
-      </c>
-      <c r="D35" t="s" s="13">
-        <v>300</v>
-      </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" ht="13.55" customHeight="1">
-      <c r="A36" s="12">
-        <v>4150</v>
-      </c>
-      <c r="B36" t="s" s="13">
-        <v>301</v>
-      </c>
-      <c r="C36" t="s" s="13">
-        <v>302</v>
-      </c>
-      <c r="D36" t="s" s="13">
-        <v>303</v>
-      </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" ht="13.55" customHeight="1">
-      <c r="A37" s="12">
-        <v>58329</v>
-      </c>
-      <c r="B37" t="s" s="13">
-        <v>304</v>
-      </c>
-      <c r="C37" t="s" s="13">
-        <v>305</v>
-      </c>
-      <c r="D37" t="s" s="13">
-        <v>306</v>
-      </c>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" ht="13.55" customHeight="1">
-      <c r="A38" s="12">
-        <v>61002</v>
-      </c>
-      <c r="B38" t="s" s="13">
-        <v>307</v>
-      </c>
-      <c r="C38" t="s" s="13">
-        <v>308</v>
-      </c>
-      <c r="D38" t="s" s="13">
-        <v>309</v>
-      </c>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" ht="13.55" customHeight="1">
-      <c r="A39" s="12">
-        <v>58697</v>
-      </c>
-      <c r="B39" t="s" s="13">
-        <v>310</v>
-      </c>
-      <c r="C39" t="s" s="13">
-        <v>311</v>
-      </c>
-      <c r="D39" t="s" s="13">
-        <v>312</v>
-      </c>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" ht="13.55" customHeight="1">
-      <c r="A40" s="12">
-        <v>3982</v>
-      </c>
-      <c r="B40" t="s" s="13">
-        <v>313</v>
-      </c>
-      <c r="C40" t="s" s="13">
-        <v>314</v>
-      </c>
-      <c r="D40" t="s" s="13">
-        <v>315</v>
-      </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" ht="13.55" customHeight="1">
-      <c r="A41" s="12">
-        <v>17507</v>
-      </c>
-      <c r="B41" t="s" s="13">
-        <v>270</v>
-      </c>
-      <c r="C41" t="s" s="13">
-        <v>271</v>
-      </c>
-      <c r="D41" t="s" s="13">
-        <v>316</v>
-      </c>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" ht="13.55" customHeight="1">
-      <c r="A42" s="12">
-        <v>4058</v>
-      </c>
-      <c r="B42" t="s" s="13">
-        <v>317</v>
-      </c>
-      <c r="C42" t="s" s="13">
-        <v>318</v>
-      </c>
-      <c r="D42" t="s" s="13">
-        <v>319</v>
-      </c>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" ht="13.55" customHeight="1">
-      <c r="A43" s="12">
-        <v>61997</v>
-      </c>
-      <c r="B43" t="s" s="13">
-        <v>320</v>
-      </c>
-      <c r="C43" t="s" s="13">
-        <v>321</v>
-      </c>
-      <c r="D43" t="s" s="13">
-        <v>322</v>
-      </c>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" ht="13.55" customHeight="1">
-      <c r="A44" s="12">
-        <v>57916</v>
-      </c>
-      <c r="B44" t="s" s="13">
-        <v>323</v>
-      </c>
-      <c r="C44" t="s" s="13">
-        <v>324</v>
-      </c>
-      <c r="D44" t="s" s="13">
-        <v>325</v>
-      </c>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" ht="13.55" customHeight="1">
-      <c r="A45" s="12">
-        <v>5335</v>
-      </c>
-      <c r="B45" t="s" s="13">
+      <c r="B48" t="s" s="12">
+        <v>263</v>
+      </c>
+      <c r="C48" t="s" s="12">
+        <v>264</v>
+      </c>
+      <c r="D48" t="s" s="12">
         <v>326</v>
       </c>
-      <c r="C45" t="s" s="13">
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" ht="13.55" customHeight="1">
+      <c r="A49" s="11">
+        <v>4131</v>
+      </c>
+      <c r="B49" t="s" s="12">
         <v>327</v>
       </c>
-      <c r="D45" t="s" s="13">
+      <c r="C49" t="s" s="12">
         <v>328</v>
       </c>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" ht="13.55" customHeight="1">
-      <c r="A46" s="12">
-        <v>60759</v>
-      </c>
-      <c r="B46" t="s" s="13">
+      <c r="D49" t="s" s="12">
         <v>329</v>
       </c>
-      <c r="C46" t="s" s="13">
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" ht="13.55" customHeight="1">
+      <c r="A50" s="11">
+        <v>61779</v>
+      </c>
+      <c r="B50" t="s" s="12">
         <v>330</v>
       </c>
-      <c r="D46" t="s" s="13">
+      <c r="C50" t="s" s="12">
         <v>331</v>
       </c>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" ht="13.55" customHeight="1">
-      <c r="A47" s="12">
-        <v>59114</v>
-      </c>
-      <c r="B47" t="s" s="13">
-        <v>37</v>
-      </c>
-      <c r="C47" t="s" s="13">
-        <v>38</v>
-      </c>
-      <c r="D47" t="s" s="13">
+      <c r="D50" t="s" s="12">
         <v>332</v>
       </c>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" ht="13.55" customHeight="1">
-      <c r="A48" s="12">
-        <v>17507</v>
-      </c>
-      <c r="B48" t="s" s="13">
-        <v>270</v>
-      </c>
-      <c r="C48" t="s" s="13">
-        <v>271</v>
-      </c>
-      <c r="D48" t="s" s="13">
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" ht="13.55" customHeight="1">
+      <c r="A51" s="11">
+        <v>61674</v>
+      </c>
+      <c r="B51" t="s" s="12">
         <v>333</v>
       </c>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" ht="13.55" customHeight="1">
-      <c r="A49" s="12">
-        <v>4131</v>
-      </c>
-      <c r="B49" t="s" s="13">
+      <c r="C51" t="s" s="12">
         <v>334</v>
       </c>
-      <c r="C49" t="s" s="13">
+      <c r="D51" t="s" s="12">
         <v>335</v>
       </c>
-      <c r="D49" t="s" s="13">
-        <v>336</v>
-      </c>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" ht="13.55" customHeight="1">
-      <c r="A50" s="12">
-        <v>61779</v>
-      </c>
-      <c r="B50" t="s" s="13">
-        <v>337</v>
-      </c>
-      <c r="C50" t="s" s="13">
-        <v>338</v>
-      </c>
-      <c r="D50" t="s" s="13">
-        <v>339</v>
-      </c>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" ht="13.55" customHeight="1">
-      <c r="A51" s="12">
-        <v>61674</v>
-      </c>
-      <c r="B51" t="s" s="13">
-        <v>340</v>
-      </c>
-      <c r="C51" t="s" s="13">
-        <v>341</v>
-      </c>
-      <c r="D51" t="s" s="13">
-        <v>342</v>
-      </c>
-      <c r="E51" s="11"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
